--- a/AnalyseLaboratoire.xlsx
+++ b/AnalyseLaboratoire.xlsx
@@ -816,14 +816,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:U111"/>
+  <dimension ref="C4:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
